--- a/B100.xlsx
+++ b/B100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.caliman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4ADB6-8E2D-4BD8-AA0D-83C0BB591DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE363D-E7B7-4B53-8A0C-87D530A56A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{EB392BDB-DA7D-4FD3-91F3-106D45ED2BA8}"/>
   </bookViews>
@@ -436,15 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F83360-1D97-47A6-929B-6ECDEB446687}">
-  <dimension ref="A1:D1230"/>
+  <dimension ref="A1:D1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -17667,6 +17665,468 @@
         <v>0.13159999999999999</v>
       </c>
     </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1231" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>164.10166062618396</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>143.14565198034285</v>
+      </c>
+      <c r="D1231" s="3">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1232" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>165.08807713855271</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>142.97070710680612</v>
+      </c>
+      <c r="D1232" s="3">
+        <v>0.13214999999999999</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1233" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>166.19277902183612</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>143.70809232857292</v>
+      </c>
+      <c r="D1233" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1234" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>169.18682260202965</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>144.51789255281409</v>
+      </c>
+      <c r="D1234" s="3">
+        <v>0.13214999999999999</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1235" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>167.52217638921519</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>143.63023585302813</v>
+      </c>
+      <c r="D1235" s="3">
+        <v>0.1321</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1236" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>167.9499629109979</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>144.9174117648484</v>
+      </c>
+      <c r="D1236" s="3">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1237" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>168.85643578386353</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>145.43749140620787</v>
+      </c>
+      <c r="D1237" s="3">
+        <v>0.13070000000000001</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1238" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>170.40905000402518</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>146.98401054939092</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>0.1305</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1239" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>170.10457517279448</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>146.8889715373605</v>
+      </c>
+      <c r="D1239" s="3">
+        <v>0.13105</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1240" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>171.40267484404546</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>147.25808311138383</v>
+      </c>
+      <c r="D1240" s="3">
+        <v>0.13144999999999998</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1241" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>167.02870885913737</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>146.49500484886738</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1242" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>170.70365189075872</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>147.82325933939509</v>
+      </c>
+      <c r="D1242" s="3">
+        <v>0.13140000000000002</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1243" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>171.44937494968545</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>147.89070735717448</v>
+      </c>
+      <c r="D1243" s="3">
+        <v>0.13175000000000001</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1244" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>167.57217774462723</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>146.69386595562062</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>0.13250000000000001</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1245" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>170.23544944641685</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>146.83563702487311</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>0.13225000000000001</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1246" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>169.545349622374</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>147.73427762577322</v>
+      </c>
+      <c r="D1246" s="3">
+        <v>0.13289999999999999</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1247" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>166.7104591396666</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>147.63354475323877</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>0.13255</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1248" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>165.66983641408905</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>146.90700209562334</v>
+      </c>
+      <c r="D1248" s="3">
+        <v>0.13255</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1249" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>160.31579457539459</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>145.32432088094117</v>
+      </c>
+      <c r="D1249" s="3">
+        <v>0.13390000000000002</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1250" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>161.31211483707949</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>145.57772795986352</v>
+      </c>
+      <c r="D1250" s="3">
+        <v>0.13425000000000001</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1251" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>159.37654537508769</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>144.9794990735362</v>
+      </c>
+      <c r="D1251" s="3">
+        <v>0.13369999999999999</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1252" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>152.06972958297669</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>142.7063464132616</v>
+      </c>
+      <c r="D1252" s="3">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1253" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>151.28330308984656</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>143.5028306765013</v>
+      </c>
+      <c r="D1253" s="3">
+        <v>0.13414999999999999</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1254" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>150.74210349269146</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>143.06146562796113</v>
+      </c>
+      <c r="D1254" s="3">
+        <v>0.13339999999999999</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1255" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>149.37039057224675</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>142.02379993308705</v>
+      </c>
+      <c r="D1255" s="3">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1256" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>149.12824929231064</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>143.13735348152309</v>
+      </c>
+      <c r="D1256" s="3">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1257" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>147.82037935929264</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>143.03602497464516</v>
+      </c>
+      <c r="D1257" s="3">
+        <v>0.1336</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1258" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>150.15682219951336</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>143.96548712894756</v>
+      </c>
+      <c r="D1258" s="3">
+        <v>0.13305</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1259" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>147.74757730366653</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>143.55799247400861</v>
+      </c>
+      <c r="D1259" s="3">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1260" s="2">
+        <v>45947</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>147.37483899347922</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>144.76804888159052</v>
+      </c>
+      <c r="D1260" s="3">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1261" s="2">
+        <v>45950</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>149.86941837215835</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>145.88934567649221</v>
+      </c>
+      <c r="D1261" s="3">
+        <v>0.13225000000000001</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1262" s="2">
+        <v>45951</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>148.98786659788291</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>145.46112496549864</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1263" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>152.28368445350608</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>146.25628671858578</v>
+      </c>
+      <c r="D1263" s="3">
+        <v>0.13144999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
